--- a/2026-02-12 Final Barriers Initiatives.xlsx
+++ b/2026-02-12 Final Barriers Initiatives.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unbcloud-my.sharepoint.com/personal/t9v3a_unb_ca/Documents/Desktop/atlantic_roadmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="601" documentId="8_{DA17D932-0253-4F0D-9CB0-FBB683D6B4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6157D866-48FA-4245-9310-4B07F1AF2E0E}"/>
+  <xr:revisionPtr revIDLastSave="730" documentId="8_{DA17D932-0253-4F0D-9CB0-FBB683D6B4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{797349FF-7943-45A8-A3E4-EBAFDDFB31D1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$K$71</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="435">
   <si>
     <t>Index</t>
   </si>
@@ -69,6 +69,9 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Sub-Category</t>
+  </si>
+  <si>
     <t>Initiative</t>
   </si>
   <si>
@@ -132,13 +135,36 @@
     <t>Metric Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">Financing and insurance </t>
+  </si>
+  <si>
     <t>Cost Structure </t>
   </si>
   <si>
     <t>Introduce MMC manufacturer pre-qualification based on CSA A277 certification.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonding challenges for small manufacturers (NS, NB). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bonding challenges for small manufacturers (NS, NB). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Small manufacturers face bonding challenges that limit their ability to participate in projects.
+</t>
+    </r>
   </si>
   <si>
     <t>FI1</t>
@@ -260,7 +286,34 @@
     <t>Use MURB projects as case studies to identify cost reductions for MURBs that use MMC.</t>
   </si>
   <si>
-    <t>Multi-unit residential building (MURB) volumetric modular construction significantly more expensive (PEI). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Multi-unit residential building (MURB) volumetric modular construction </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> significantly more expensive (PEI). </t>
+    </r>
   </si>
   <si>
     <t>FI4</t>
@@ -290,7 +343,34 @@
     <t>Add MMC-friendly (particularly for categories 1 to 4) payment structures and liquidity supports.</t>
   </si>
   <si>
-    <t>High upfront costs and misaligned payment milestones strain cash flow (Atlantic). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">High upfront costs and misaligned payment milestones </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create cash-flow challenges.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Atlantic). </t>
+    </r>
   </si>
   <si>
     <t>FI5</t>
@@ -322,8 +402,45 @@
     <t>Establish a pre-manufactured index with fee reductions and expedited approvals.</t>
   </si>
   <si>
-    <t>No tax incentives, subsidies, or financial supports tailored to OSC (Atlantic). 
-Government fees add affordability challenges (Atlantic). </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There are no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tax incentives, subsidies, or financial supports tailored to OSC (Atlantic). 
+Government fees add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>additional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> affordability challenges (Atlantic). </t>
+    </r>
   </si>
   <si>
     <t>FI6</t>
@@ -355,9 +472,56 @@
     <t>Work with insurers to develop a unified OSC insurance products aligned with MMC (categories 1 to 4) with clear liability transfer.</t>
   </si>
   <si>
-    <t>There are coverage gaps, overlapping insurance requirements, and unclear responsibility transfers between the factory, transporter, and on-site contractor (Atlantic). 
-Higher insurance premiums for mass timber or wood-based modular systems (Atlantic). 
-Insurance regulations not tailored to offsite fabrication risks (Atlantic). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There are coverage gaps, overlapping insurance requirements, and unclear responsibility transfers between the factory, transporter, and on-site contractor (Atlantic). 
+Higher insurance premiums for mass timber or wood-based modular systems (Atlantic). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Insurance premiums are higher for mass timber or wood-based modular systems. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Insurance regulations </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not tailored to offsite fabrication risks (Atlantic). </t>
+    </r>
   </si>
   <si>
     <t>FI7</t>
@@ -384,6 +548,9 @@
     <t>Manufacturers, Federal Government, Developers &amp; General Contractors, Transportation &amp; Logistics Providers, Finance &amp; Insurance/Business Services</t>
   </si>
   <si>
+    <t>Policy and regulatory</t>
+  </si>
+  <si>
     <t>Attitudes and Knowledge Gaps </t>
   </si>
   <si>
@@ -441,13 +608,30 @@
     <t>Provincial Government, Municipal Government</t>
   </si>
   <si>
-    <t>Policy and regulatory</t>
-  </si>
-  <si>
     <t>Support public and private sector education and create a regional MMC approval pathway supported by awareness programs.</t>
   </si>
   <si>
-    <t>There is a gap between the promotion of OSC and the acceptance of it. Specifically, politicians have been promoting OSC however their departments do not prefer it. A gap was also noted in CMHC promoting OSC despite the funding mechanisms not being friendly to OSC (Atlantic). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">There is a gap between the promotion of OSC and the acceptance of it. Specifically, politicians have been promoting OSC however their departments do not prefer it. A gap was also noted in CMHC promoting OSC despite the funding mechanisms not being friendly to OSC (Atlantic). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Misalignment between the promotion and institutional acceptance of OSC, including political support not reflected in departmental preferences and funding mechanisms that are not aligned with OSC delivery.
+</t>
+    </r>
   </si>
   <si>
     <t>PR3</t>
@@ -475,7 +659,27 @@
     <t>Work with NRC and the necessary codes, committees and commissions to establish a technical committee to update codes for MMC and educate planners and officials.</t>
   </si>
   <si>
-    <t>Complexity of codes: mention of challenges navigating national, provincial, and local codes (including NBC, NECB) (Atlantic).  </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Complexity of codes: mention of challenges navigating national, provincial, and local codes (including NBC, NECB) (Atlantic).  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The regulatory environment is complex and fragmented, as national, provincial, and local codes are difficult to navigate.
+</t>
+    </r>
   </si>
   <si>
     <t>PR4</t>
@@ -505,7 +709,21 @@
     <t>Establish the Atlantic Off-site Housing Innovation Network with a clear mandate including monthly (or quarterly inter-provincial meetings) with up to two points-of-contact reporting back to provincial committees. </t>
   </si>
   <si>
-    <t>Lack of communication across government agencies (Atlantic). </t>
+    <r>
+      <t xml:space="preserve">Lack of communication across government agencies (Atlantic). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Limited communication and coordination across government agencies.
+</t>
+    </r>
   </si>
   <si>
     <t>PR5</t>
@@ -528,7 +746,27 @@
     <t>Designate a MMC Liaison Officer in NL. This individual should ideally have expertise in traditional, panelized (category 2) and volumetric modular (category 1) construction.</t>
   </si>
   <si>
-    <t>Outdated policies needing to be updated (NL). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Outdated policies needing to be updated (NL). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Certain existing policies are outdated and require updating.
+</t>
+    </r>
   </si>
   <si>
     <t>PR6</t>
@@ -562,7 +800,27 @@
     <t>Standardize and promote CSA A277 adoption across municipalities through aligned policy, inspection practices, and inspector training.</t>
   </si>
   <si>
-    <t>Concerns about duplicate inspections resulting in inefficiencies (Atlantic)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Concerns about duplicate inspections resulting in inefficiencies (Atlantic)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Duplicate inspection requirements create inefficiencies in the approval and construction process.
+</t>
+    </r>
   </si>
   <si>
     <t>PR7</t>
@@ -615,7 +873,27 @@
     <t xml:space="preserve">Review permitting, by-laws, zoning and pre-construction workflows to remove barriers (e.g., costs, redundant processes, complex approvals, etc.) to all forms of housing supply. This may be done through removal of pre-construction costs, digitizing workflows, educating industry, etc. </t>
   </si>
   <si>
-    <t>Slow and costly approval processes (Atlantic).  </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Slow and costly approval processes (Atlantic).  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Approval and permitting processes are slow, complex, and costly.
+</t>
+    </r>
   </si>
   <si>
     <t>PR9</t>
@@ -661,7 +939,26 @@
     <t>Create a funding stream (through Opportunities NB, Invest NS, Innovation PEI and NL’s department of IET) for manufacturers to access and become CSA certified. </t>
   </si>
   <si>
-    <t>Only few CSA-certified modular manufacturers, limiting competition, raising costs, and preventing suppliers from scaling confidently (Atlantic). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Only few CSA-certified modular manufacturers, limiting competition, raising costs, and preventing suppliers from scaling confidently (Atlantic).  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Limited number of CSA-certified modular manufacturers restricts competition, increases costs, and limits supplier confidence to scale.
+</t>
+    </r>
   </si>
   <si>
     <t>PM2</t>
@@ -726,7 +1023,36 @@
     <t>Use a procurement approach that allows for the manufacturer to be involved in a design assist role during the design phase ( e.g., design-build CCDC-14).</t>
   </si>
   <si>
-    <t>Projects may need to be approved as design-build to create more competition (NS). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Projects may need to be approved as design-build to create more competition (NS). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Procurement and approval processes often require projects to be structured as design-build to create more competition.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
   </si>
   <si>
     <t>PM5</t>
@@ -746,7 +1072,34 @@
     <t>Work with federal and provincial governments to identify serviced or partially serviced small sites and combine them to tender larger projects to one development or design-build team.</t>
   </si>
   <si>
-    <t>Limited land availability reduces how many modular projects can be procured (NS). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Limited land availability reduces t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he number of modular projects that can be procured</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(NS). </t>
+    </r>
   </si>
   <si>
     <t>PM6</t>
@@ -771,10 +1124,34 @@
     <t>Develop a standardized OSC cost library (e.g., RSMeans-aligned) with supply-chain education to improve cost certainty and procurement outcomes</t>
   </si>
   <si>
-    <t>Lack defined roles and responsibilities leading to inaccurate pricing from sub-contractors (PEI)</t>
-  </si>
-  <si>
-    <t>2026-2028</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lack </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defined roles and responsibilities leading to inaccurate pricing from sub-contractors (PEI)</t>
+    </r>
   </si>
   <si>
     <t>PM7</t>
@@ -798,7 +1175,26 @@
     <t xml:space="preserve">Require an OSC or MMC integrator role as part of the project team using the definition identified by NRCan. The integrator may bee a consultant, contractor or manufacturer. </t>
   </si>
   <si>
-    <t>Designs are developed for traditional construction and only adapted to OSC methods later which causes redesign and inefficiencies (Atlantic). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Designs are developed for traditional construction and only adapted to OSC methods later which causes redesign and inefficiencies (Atlantic). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Designs are typically developed for traditional construction and only later adapted for OSC, resulting in redesign, delays, and inefficiencies.</t>
+    </r>
   </si>
   <si>
     <t>PM8</t>
@@ -844,7 +1240,27 @@
     <t>Use a procurement approach that enables performance-based on projects where MMC will be used.</t>
   </si>
   <si>
-    <t>Lack of flexible RFP formats - they are too structured and project specific (NB).</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lack of flexible RFP formats - they are too structured and project specific (NB).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RFP formats lack flexibility and are overly prescriptive and project-specific.
+</t>
+    </r>
   </si>
   <si>
     <t>PM10</t>
@@ -892,7 +1308,26 @@
     <t>Collaborate with CCDC and across the region to create contract templates for MMC to ensure consistency across the region.</t>
   </si>
   <si>
-    <t xml:space="preserve">Inconsistent contracting practices for MMC projects (Atlantic). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Inconsistent contracting practices for MMC projects (Atlantic). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Contracting practices for MMC projects are inconsistent across jurisdictions and clients.
+</t>
+    </r>
   </si>
   <si>
     <t>PM12</t>
@@ -930,7 +1365,34 @@
     <t>After PM3, create consistent RFP processes across the four provinces and provide annual FAQs and training sessions.</t>
   </si>
   <si>
-    <t>New entrants to construction are not used to RFP processes (NB).  </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">New entrants to construction are not </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>familiar with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  RFP processes (NB).  </t>
+    </r>
   </si>
   <si>
     <t>PM14</t>
@@ -973,7 +1435,27 @@
     <t>Define OSC-specific responsibilities in trade scopes and use a standardized site-readiness checklist.</t>
   </si>
   <si>
-    <t>Pre-fabrication work is often missing from trade agreements and scopes, making coordination harder (Atlantic).  </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pre-fabrication work is often missing from trade agreements and scopes, making coordination harder (Atlantic).  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prefabrication work is often excluded from trade agreements and scopes of work, making coordination more difficult.
+</t>
+    </r>
   </si>
   <si>
     <t>PM16</t>
@@ -1008,7 +1490,34 @@
     <t>Host OSC industry events (tours, seminars) targeting skilled trades.</t>
   </si>
   <si>
-    <t xml:space="preserve">Workforce resistance to OSC due to lack of familiarity, fear of job loss, or cultural hesitation toward new methods (Atlantic). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Workforce resistance to OSC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> due to lack of familiarity, fear of job loss, or cultural hesitation toward new methods (Atlantic). </t>
+    </r>
   </si>
   <si>
     <t>WD1</t>
@@ -1035,9 +1544,6 @@
     <t>Low awareness and misconceptions about OSC quality, aesthetics, and durability (Atlantic). </t>
   </si>
   <si>
-    <t>2026-2027</t>
-  </si>
-  <si>
     <t>WD2</t>
   </si>
   <si>
@@ -1095,8 +1601,36 @@
     <t>Collaborate across Atlantic post-secondary institutions to integrate MMC training and micro-credentials.</t>
   </si>
   <si>
-    <t>NSCC programs closing due to low enrollment (NS).
-Few contractors have OSC experience, limiting participation (NS).</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NSCC programs closing due to low enrollment (NS).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Low enrollment has resulted in the closure of OSC-related training programs, such as those at NSCC.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Few contractors have OSC experience, limiting participation (NS).</t>
+    </r>
   </si>
   <si>
     <t>WD4</t>
@@ -1126,7 +1660,26 @@
     <t>Create streamlined credential recognition for internationally trained workers and engage and work with Indigenous communities.</t>
   </si>
   <si>
-    <t>Barriers for foreign-trained workers to gain equivalency; limited culturally appropriate programs for Indigenous communities (NS).  </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Barriers for foreign-trained workers to gain equivalency; limited culturally appropriate programs for Indigenous communities (NS).  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Foreign-trained workers face barriers to credential recognition, and culturally appropriate training programs for Indigenous communities are limited.</t>
+    </r>
   </si>
   <si>
     <t>WD5</t>
@@ -1189,7 +1742,27 @@
     <t>Invest in factory optimization (i.e., digitized processes, automation, etc.) and training to increase capacity and recruitment.</t>
   </si>
   <si>
-    <t>Low overall workforce availability limits the ability to scale modular construction (Atlantic). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Low overall workforce availability limits the ability to scale modular construction (Atlantic). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Overall workforce availability is insufficient to support scaling of modular construction.
+</t>
+    </r>
   </si>
   <si>
     <t>WD8</t>
@@ -1264,7 +1837,34 @@
     <t>Provide relocation incentives and additional workforce benefits (e.g., housing).</t>
   </si>
   <si>
-    <t>Rural factory locations limit labour access and reduce available workforce pools (Atlantic). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rural factory locations limit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> skilled workforce  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>access and reduce available workforce pools (Atlantic). </t>
+    </r>
   </si>
   <si>
     <t>WD11</t>
@@ -1315,7 +1915,31 @@
     <t xml:space="preserve">Collaborate with trade associations to offer training for traditional builders on installation, fit out and handover of category 1 and 2 MMC projects </t>
   </si>
   <si>
-    <t xml:space="preserve">Skill gaps among builders (Atlantic). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Skill gaps among </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>workforce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">(Atlantic). </t>
+    </r>
   </si>
   <si>
     <t>WD13</t>
@@ -1354,7 +1978,26 @@
     <t>Consult Indigenous communities to identify workforce initiatives.</t>
   </si>
   <si>
-    <t>Culturally inappropriate or unwelcoming workplaces limit participation from Indigenous peoples and underrepresented groups (NB). </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Culturally inappropriate or unwelcoming workplaces limit participation from Indigenous peoples and underrepresented groups (NB). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Workplace cultures are not consistently inclusive or culturally appropriate, limiting participation from Indigenous peoples and other underrepresented groups.</t>
+    </r>
   </si>
   <si>
     <t>WD15</t>
@@ -1375,7 +2018,8 @@
     <t>Enable long-term year-round employment through offtake agreements and enhanced benefits.</t>
   </si>
   <si>
-    <t>Workforce retention challenges due to high living costs, housing affordability, and job security concerns in the construction sector (Atlantic). </t>
+    <t xml:space="preserve">Workforce retention challenges due to high living costs, housing affordability, and job security concerns in the construction sector (Atlantic). 
+</t>
   </si>
   <si>
     <t>WD16</t>
@@ -1402,7 +2046,27 @@
     <t>Ensure conflict resolution for OSC component damages is included in contracts.</t>
   </si>
   <si>
-    <t>Responsibility/liability for damage is unclear between manufacturer, hauler, GC (Atlantic).</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Responsibility/liability for damage is unclear between manufacturer, hauler, GC (Atlantic).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Responsibility and liability for damage during manufacturing, transportation, and installation are unclear among manufacturers, haulers, and general contractors.
+</t>
+    </r>
   </si>
   <si>
     <t>TL1</t>
@@ -1431,8 +2095,48 @@
     <t xml:space="preserve">Collaborate with the R&amp;D based organizations to better understand and minimize damages from transportation and erection. Produce a document top help mitigate these risks. </t>
   </si>
   <si>
-    <t>Denting, corner damage, and structural movement during loading/unloading (Atlantic). 
-Inconsistent moisture barriers and wrapping practices (Atlantic).</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Denting, corner damage, and structural movement during loading/unloading (Atlantic). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Modules are susceptible to denting, corner damage, and structural movement during loading and unloading.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Inconsistent moisture barriers and wrapping practices (Atlantic).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Moisture protection practices, including barriers and wrapping, are inconsistent.
+</t>
+    </r>
   </si>
   <si>
     <t>TL2</t>
@@ -1461,7 +2165,34 @@
     <t>Collaborate regionally to document overload escort and permit requirements in a single reference.</t>
   </si>
   <si>
-    <t>Escort and permit rules for oversized modules (often &gt;12 ft wide) differ between jurisdictions (Atlantic).</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Escort and permit rules for oversized modules (often &gt;12 ft wide) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vary across</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  jurisdictions (Atlantic).</t>
+    </r>
   </si>
   <si>
     <t>TL3</t>
@@ -1544,9 +2275,37 @@
     <t>In parallel to TL5, identify designated transportation routes with temporary staging yards for critical projects.</t>
   </si>
   <si>
-    <t>Limited staging and storage space near construction sites (Atlantic). 
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Limited staging and storage space near construction sites (Atlantic). 
 Seasonal weight restrictions affecting transportation timelines (Atlantic). 
-Difficult access in dense urban areas (tight roads, overhead utilities) (NS).  </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Seasonal road weight restrictions affect transportation timelines. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Difficult access in dense urban areas (tight roads, overhead utilities) (NS).  </t>
+    </r>
   </si>
   <si>
     <t>TL6</t>
@@ -1561,19 +2320,13 @@
   </si>
   <si>
     <t>Provincial Government, Municipal Government, Transportation &amp; Logistics Providers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financing and insurance </t>
-  </si>
-  <si>
-    <t>Sub-Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1625,8 +2378,32 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1705,6 +2482,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1757,7 +2540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1809,9 +2592,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1829,17 +2609,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,6 +2621,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2163,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="33" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2184,131 +2999,131 @@
     <col min="15" max="15" width="81.7265625" style="2" customWidth="1"/>
     <col min="16" max="16" width="36.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.81640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>436</v>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>435</v>
+        <v>24</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="F2" s="5">
         <v>2026</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="3" cm="1">
         <f t="array" ref="Q2">_xlfn.LET(
@@ -2319,77 +3134,77 @@
         <v>20262026</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S2" t="str">
-        <f t="shared" ref="S2:V21" si="0">IF(ISNUMBER(SEARCH("Independent",$R2)),"Pending","-")</f>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R2)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="T2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R2)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="U2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R2)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="V2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R2)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="W2" t="str">
-        <f t="shared" ref="W2:W33" si="1">IF(ISNUMBER(SEARCH("Collaboration",$R2)),"Pending","-")</f>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R2)),"Pending","-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
+        <v>97</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F3" s="5">
         <v>2026</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K3" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="Q3" s="3" cm="1">
         <f t="array" ref="Q3">_xlfn.LET(
@@ -2400,77 +3215,77 @@
         <v>20262026</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R3)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R3)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R3)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V3" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R3)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" si="1"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R3)),"Pending","-")</f>
+        <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>50</v>
+        <v>129</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="F4" s="5">
         <v>2026</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K4" s="5">
         <v>8</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>55</v>
+      <c r="L4" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="3" cm="1">
         <f t="array" ref="Q4">_xlfn.LET(
@@ -2481,77 +3296,77 @@
         <v>20262026</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R4)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R4)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R4)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R4)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R4)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="F5" s="5">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K5" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="3" cm="1">
         <f t="array" ref="Q5">_xlfn.LET(
@@ -2559,80 +3374,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F5,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>35</v>
+        <v>20262026</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R5)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R5)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R5)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R5)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R5)),"Pending","-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>68</v>
+        <v>177</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F6" s="5">
         <v>2026</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>69</v>
+      <c r="G6" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K6" s="5">
         <v>9</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="3" cm="1">
         <f t="array" ref="Q6">_xlfn.LET(
@@ -2643,77 +3458,77 @@
         <v>20262026</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R6)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R6)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R6)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R6)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="1"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R6)),"Pending","-")</f>
+        <v>-</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2026</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="5">
+        <v>9</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2027</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="5">
-        <v>8</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="Q7" s="3" cm="1">
         <f t="array" ref="Q7">_xlfn.LET(
@@ -2721,80 +3536,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F7,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
+        <v>20262026</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R7)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R7)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R7)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R7)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R7)),"Pending","-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>84</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>86</v>
+        <v>215</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="F8" s="5">
         <v>2026</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>87</v>
+      <c r="G8" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K8" s="5">
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="3" cm="1">
         <f t="array" ref="Q8">_xlfn.LET(
@@ -2804,78 +3619,78 @@
 )</f>
         <v>20262026</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>47</v>
+      <c r="R8" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R8)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R8)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R8)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R8)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="1"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R8)),"Pending","-")</f>
+        <v>-</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>95</v>
+        <v>223</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>224</v>
       </c>
       <c r="F9" s="5">
         <v>2026</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>96</v>
+      <c r="G9" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K9" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="3" cm="1">
         <f t="array" ref="Q9">_xlfn.LET(
@@ -2885,78 +3700,78 @@
 )</f>
         <v>20262026</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>35</v>
+      <c r="R9" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R9)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R9)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R9)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="V9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R9)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R9)),"Pending","-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>93</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="F10" s="5">
         <v>2026</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>105</v>
+      <c r="G10" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K10" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="3" cm="1">
         <f t="array" ref="Q10">_xlfn.LET(
@@ -2966,78 +3781,78 @@
 )</f>
         <v>20262026</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>35</v>
+      <c r="R10" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R10)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R10)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R10)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R10)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R10)),"Pending","-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="F11" s="5">
-        <v>2027</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>113</v>
+        <v>2026</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>114</v>
+        <v>258</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K11" s="5">
         <v>9</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="3" cm="1">
         <f t="array" ref="Q11">_xlfn.LET(
@@ -3045,80 +3860,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F11,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
-      </c>
-      <c r="R11" t="s">
-        <v>35</v>
+        <v>20262026</v>
+      </c>
+      <c r="R11" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R11)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R11)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R11)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R11)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R11)),"Pending","-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>118</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>120</v>
+        <v>262</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>263</v>
       </c>
       <c r="F12" s="5">
-        <v>2027</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>121</v>
+        <v>2026</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>264</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K12" s="5">
         <v>8</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="3" cm="1">
         <f t="array" ref="Q12">_xlfn.LET(
@@ -3126,80 +3941,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F12,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
+        <v>20262026</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R12)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R12)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R12)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R12)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="1"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R12)),"Pending","-")</f>
+        <v>-</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>126</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="5">
+        <v>269</v>
+      </c>
+      <c r="F13" s="6">
         <v>2026</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>129</v>
+      <c r="G13" s="19" t="s">
+        <v>270</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K13" s="5">
         <v>8</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="3" cm="1">
         <f t="array" ref="Q13">_xlfn.LET(
@@ -3210,77 +4025,77 @@
         <v>20262026</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R13)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R13)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R13)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R13)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W13" t="str">
-        <f t="shared" si="1"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R13)),"Pending","-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>126</v>
+        <v>34</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>134</v>
+        <v>273</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>274</v>
       </c>
       <c r="F14" s="5">
         <v>2026</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K14" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="3" cm="1">
         <f t="array" ref="Q14">_xlfn.LET(
@@ -3291,77 +4106,77 @@
         <v>20262026</v>
       </c>
       <c r="R14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R14)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="T14" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R14)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="U14" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R14)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="V14" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R14)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="W14" t="str">
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R14)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>35</v>
       </c>
-      <c r="S14" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>141</v>
+      <c r="B15" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="F15" s="5">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>145</v>
+        <v>283</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K15" s="5">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>148</v>
+        <v>287</v>
       </c>
       <c r="Q15" s="3" cm="1">
         <f t="array" ref="Q15">_xlfn.LET(
@@ -3369,80 +4184,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F15,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
+        <v>20262026</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R15)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T15" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R15)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R15)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V15" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R15)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R15)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>149</v>
+        <v>36</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="F16" s="5">
         <v>2026</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>33</v>
+        <v>295</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="3" cm="1">
         <f t="array" ref="Q16">_xlfn.LET(
@@ -3452,78 +4267,78 @@
 )</f>
         <v>20262026</v>
       </c>
-      <c r="R16" s="32" t="s">
-        <v>35</v>
+      <c r="R16" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R16)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R16)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R16)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R16)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R16)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>149</v>
+        <v>42</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>157</v>
+        <v>326</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="F17" s="5">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>158</v>
+        <v>328</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K17" s="5">
         <v>9</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>161</v>
+        <v>331</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="3" cm="1">
         <f t="array" ref="Q17">_xlfn.LET(
@@ -3531,80 +4346,81 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F17,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
-      </c>
-      <c r="R17" t="s">
-        <v>35</v>
+        <v>20262026</v>
+      </c>
+      <c r="R17" s="47" t="s">
+        <v>49</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R17)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R17)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R17)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="0"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R17)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R17)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="20">
+        <v>48</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="5">
         <v>2026</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="20">
-        <v>8</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="O18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>168</v>
+      <c r="G18" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="5">
+        <v>9</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="Q18" s="3" cm="1">
         <f t="array" ref="Q18">_xlfn.LET(
@@ -3614,78 +4430,78 @@
 )</f>
         <v>20262026</v>
       </c>
-      <c r="R18" s="20" t="s">
-        <v>47</v>
+      <c r="R18" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R18)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R18)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R18)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R18)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R18)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>164</v>
+        <v>49</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>364</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>171</v>
+        <v>373</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>374</v>
       </c>
       <c r="F19" s="5">
         <v>2026</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>172</v>
+      <c r="G19" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>91</v>
+        <v>376</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>173</v>
+        <v>377</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>33</v>
+        <v>371</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>91</v>
+        <v>376</v>
       </c>
       <c r="Q19" s="3" cm="1">
         <f t="array" ref="Q19">_xlfn.LET(
@@ -3695,78 +4511,78 @@
 )</f>
         <v>20262026</v>
       </c>
-      <c r="R19" t="s">
-        <v>35</v>
+      <c r="R19" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R19)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R19)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R19)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R19)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R19)),"Pending","-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>164</v>
+        <v>51</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>386</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>176</v>
+        <v>387</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>388</v>
       </c>
       <c r="F20" s="5">
         <v>2026</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>177</v>
+      <c r="G20" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>179</v>
+        <v>391</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>43</v>
+        <v>392</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>33</v>
+        <v>394</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>181</v>
+        <v>395</v>
       </c>
       <c r="Q20" s="3" cm="1">
         <f t="array" ref="Q20">_xlfn.LET(
@@ -3776,78 +4592,78 @@
 )</f>
         <v>20262026</v>
       </c>
-      <c r="R20" t="s">
-        <v>35</v>
+      <c r="R20" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R20)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R20)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R20)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R20)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R20)),"Pending","-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>164</v>
+        <v>56</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>428</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>183</v>
+        <v>429</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>430</v>
       </c>
       <c r="F21" s="5">
         <v>2026</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>184</v>
+      <c r="G21" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>185</v>
+        <v>343</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>54</v>
+        <v>318</v>
       </c>
       <c r="K21" s="5">
-        <v>9</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>186</v>
+        <v>8</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>187</v>
+        <v>103</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>181</v>
+        <v>35</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="Q21" s="3" cm="1">
         <f t="array" ref="Q21">_xlfn.LET(
@@ -3857,78 +4673,78 @@
 )</f>
         <v>20262026</v>
       </c>
-      <c r="R21" t="s">
-        <v>35</v>
+      <c r="R21" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R21)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R21)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R21)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="V21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R21)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R21)),"Pending","-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>164</v>
+        <v>2</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>189</v>
+        <v>39</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="F22" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>190</v>
+        <v>2027</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K22" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="3" cm="1">
         <f t="array" ref="Q22">_xlfn.LET(
@@ -3936,80 +4752,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F22,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R22" t="s">
-        <v>35</v>
+        <v>20272027</v>
+      </c>
+      <c r="R22" s="47" t="s">
+        <v>49</v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" ref="S22:V41" si="2">IF(ISNUMBER(SEARCH("Independent",$R22)),"Pending","-")</f>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R22)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R22)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R22)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="V22" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R22)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R22)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>164</v>
+        <v>3</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>195</v>
+        <v>51</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="F23" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>196</v>
+        <v>2027</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K23" s="5">
-        <v>7</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>198</v>
+        <v>8</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="3" cm="1">
         <f t="array" ref="Q23">_xlfn.LET(
@@ -4017,80 +4833,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F23,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R23" s="32" t="s">
-        <v>35</v>
+        <v>20272027</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R23)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R23)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R23)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="V23" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R23)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R23)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>164</v>
+        <v>5</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="35">
-        <v>8</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="M24" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="O24" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="35" t="s">
-        <v>145</v>
+        <v>69</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2027</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="5">
+        <v>9</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="Q24" s="3" cm="1">
         <f t="array" ref="Q24">_xlfn.LET(
@@ -4098,80 +4914,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F24,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20282026</v>
+        <v>20272027</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R24)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R24)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R24)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R24)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R24)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>208</v>
+      <c r="C25" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>210</v>
+        <v>87</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="F25" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>211</v>
+        <v>2027</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K25" s="5">
         <v>9</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="3" cm="1">
         <f t="array" ref="Q25">_xlfn.LET(
@@ -4179,80 +4995,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F25,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
+        <v>20272027</v>
       </c>
       <c r="R25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S25" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R25)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="T25" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R25)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="U25" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R25)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="V25" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R25)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="W25" t="str">
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R25)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2027</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="5">
+        <v>6</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="W25" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="5">
-        <v>9</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="P26" s="5" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="Q26" s="3" cm="1">
         <f t="array" ref="Q26">_xlfn.LET(
@@ -4260,80 +5076,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F26,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R26" s="32" t="s">
+        <v>20272027</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R26)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="T26" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R26)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="U26" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R26)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="V26" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R26)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="W26" t="str">
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R26)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="37">
+        <v>2027</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="5">
+        <v>9</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S26" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="V26" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="W26" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="5">
-        <v>8</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="P27" s="5" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="3" cm="1">
         <f t="array" ref="Q27">_xlfn.LET(
@@ -4341,80 +5157,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F27,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R27" s="32" t="s">
+        <v>20272027</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R27)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="T27" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R27)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="U27" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R27)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="V27" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R27)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="W27" t="str">
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R27)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2027</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="5">
+        <v>7</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S27" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="V27" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="W27" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="5">
-        <v>9</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="P28" s="5" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="3" cm="1">
         <f t="array" ref="Q28">_xlfn.LET(
@@ -4422,80 +5238,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F28,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R28" s="32" t="s">
+        <v>20272027</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R28)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="T28" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R28)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="U28" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R28)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="V28" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R28)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="W28" t="str">
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R28)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2027</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="5">
+        <v>9</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S28" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="V28" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="W28" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" s="20">
-        <v>2027</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="20">
-        <v>8</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="O29" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="P29" s="22" t="s">
-        <v>168</v>
+      <c r="P29" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="Q29" s="3" cm="1">
         <f t="array" ref="Q29">_xlfn.LET(
@@ -4505,78 +5321,78 @@
 )</f>
         <v>20272027</v>
       </c>
-      <c r="R29" s="20" t="s">
-        <v>47</v>
+      <c r="R29" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R29)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R29)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R29)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R29)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R29)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>243</v>
+        <v>166</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="F30" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="5">
+        <v>2027</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="19">
         <v>8</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>181</v>
+      <c r="L30" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="Q30" s="3" cm="1">
         <f t="array" ref="Q30">_xlfn.LET(
@@ -4584,80 +5400,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F30,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R30" s="32" t="s">
+        <v>20272027</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S30" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R30)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="T30" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R30)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="U30" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R30)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="V30" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R30)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="W30" t="str">
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R30)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2027</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="5">
+        <v>9</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S30" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="V30" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="W30" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F31" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" s="5">
-        <v>7</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="P31" s="5" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="Q31" s="3" cm="1">
         <f t="array" ref="Q31">_xlfn.LET(
@@ -4665,80 +5481,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F31,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
+        <v>20272027</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R31)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R31)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R31)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R31)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="1"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R31)),"Pending","-")</f>
+        <v>-</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>254</v>
+        <v>190</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>191</v>
       </c>
       <c r="F32" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>255</v>
+        <v>2027</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K32" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="Q32" s="3" cm="1">
         <f t="array" ref="Q32">_xlfn.LET(
@@ -4746,80 +5562,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F32,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
+        <v>20272027</v>
       </c>
       <c r="R32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S32" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R32)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="T32" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R32)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="U32" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R32)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="V32" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R32)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="W32" t="str">
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R32)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>22</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2027</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="5">
+        <v>7</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S32" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="V32" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="W32" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="5">
-        <v>8</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="P33" s="5" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="Q33" s="3" cm="1">
         <f t="array" ref="Q33">_xlfn.LET(
@@ -4827,80 +5643,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F33,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R33" s="2" t="s">
+        <v>20272027</v>
+      </c>
+      <c r="R33" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R33)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="T33" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R33)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="U33" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R33)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="V33" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R33)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+      <c r="W33" t="str">
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R33)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2027</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="5">
+        <v>7</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="O34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S33" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="U33" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="V33" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
-      </c>
-      <c r="W33" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="5">
-        <v>8</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="P34" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q34" s="3" cm="1">
         <f t="array" ref="Q34">_xlfn.LET(
@@ -4908,80 +5724,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F34,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20282026</v>
+        <v>20272027</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R34)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R34)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R34)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R34)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" ref="W34:W56" si="3">IF(ISNUMBER(SEARCH("Collaboration",$R34)),"Pending","-")</f>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R34)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C35" s="18" t="s">
         <v>271</v>
       </c>
+      <c r="C35" s="33" t="s">
+        <v>297</v>
+      </c>
       <c r="D35" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>273</v>
+        <v>298</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="F35" s="5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K35" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Q35" s="3" cm="1">
         <f t="array" ref="Q35">_xlfn.LET(
@@ -4989,80 +5805,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F35,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
+        <v>20272027</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R35)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R35)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R35)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R35)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R35)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F36" s="5">
+        <v>2027</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="5">
+        <v>8</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="5">
-        <v>9</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="P36" s="5" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="Q36" s="3" cm="1">
         <f t="array" ref="Q36">_xlfn.LET(
@@ -5070,81 +5886,81 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F36,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272026</v>
+        <v>20272027</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R36)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R36)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R36)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R36)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="3"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R36)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="X36"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>281</v>
+        <v>315</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2027</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>54</v>
+        <v>318</v>
       </c>
       <c r="K37" s="5">
         <v>8</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>295</v>
+        <v>47</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="Q37" s="3" cm="1">
         <f t="array" ref="Q37">_xlfn.LET(
@@ -5152,80 +5968,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F37,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272026</v>
+        <v>20272027</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R37)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R37)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R37)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R37)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R37)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>299</v>
+      <c r="D38" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>323</v>
       </c>
       <c r="F38" s="5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="19">
+        <v>8</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O38" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" s="5">
-        <v>9</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>306</v>
+      <c r="P38" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="Q38" s="3" cm="1">
         <f t="array" ref="Q38">_xlfn.LET(
@@ -5233,80 +6049,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F38,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R38" s="2" t="s">
+        <v>20272027</v>
+      </c>
+      <c r="R38" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="S38" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R38)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="T38" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R38)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="U38" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R38)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="V38" t="str">
+        <f>IF(ISNUMBER(SEARCH("Independent",$R38)),"Pending","-")</f>
+        <v>-</v>
+      </c>
+      <c r="W38" t="str">
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R38)),"Pending","-")</f>
+        <v>Pending</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>47</v>
       </c>
-      <c r="S38" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="T38" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="U38" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="V38" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="W38" t="str">
-        <f t="shared" si="3"/>
-        <v>Pending</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>38</v>
-      </c>
       <c r="B39" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>308</v>
+      <c r="D39" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>362</v>
       </c>
       <c r="F39" s="5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="5">
-        <v>8</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>313</v>
+        <v>363</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="19">
+        <v>7</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="Q39" s="3" cm="1">
         <f t="array" ref="Q39">_xlfn.LET(
@@ -5314,80 +6130,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F39,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>35</v>
+        <v>20272027</v>
+      </c>
+      <c r="R39" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R39)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R39)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="U39" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R39)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="2"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R39)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R39)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="87" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>297</v>
+        <v>52</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>386</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>315</v>
+        <v>396</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>397</v>
       </c>
       <c r="F40" s="5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>318</v>
+        <v>56</v>
       </c>
       <c r="K40" s="5">
         <v>8</v>
       </c>
-      <c r="L40" s="5" t="s">
-        <v>319</v>
+      <c r="L40" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>21</v>
+        <v>401</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>320</v>
+        <v>402</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="Q40" s="3" cm="1">
         <f t="array" ref="Q40">_xlfn.LET(
@@ -5395,80 +6211,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F40,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
+        <v>20272027</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R40)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R40)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R40)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R40)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R40)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="F41" s="20">
-        <v>2026</v>
+        <v>55</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2027</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" s="20">
+        <v>424</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="5">
         <v>8</v>
       </c>
-      <c r="L41" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="N41" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="O41" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="P41" s="22" t="s">
-        <v>301</v>
+      <c r="L41" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="Q41" s="3" cm="1">
         <f t="array" ref="Q41">_xlfn.LET(
@@ -5476,80 +6292,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F41,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R41" s="20" t="s">
-        <v>47</v>
+        <v>20272027</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R41)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R41)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R41)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V41" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R41)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R41)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>297</v>
+        <v>1</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>281</v>
+        <v>26</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2028</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>328</v>
+        <v>28</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K42" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>329</v>
+        <v>32</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>330</v>
+        <v>33</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>331</v>
+        <v>34</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="Q42" s="3" cm="1">
         <f t="array" ref="Q42">_xlfn.LET(
@@ -5557,81 +6373,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F42,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272026</v>
+        <v>20282028</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" ref="S42:V56" si="4">IF(ISNUMBER(SEARCH("Independent",$R42)),"Pending","-")</f>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R42)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R42)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R42)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R42)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="3"/>
-        <v>Pending</v>
-      </c>
-      <c r="X42" s="1"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R42)),"Pending","-")</f>
+        <v>-</v>
+      </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>297</v>
+        <v>18</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>333</v>
+        <v>172</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>173</v>
       </c>
       <c r="F43" s="5">
-        <v>2027</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>334</v>
+        <v>2028</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K43" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>336</v>
+        <v>175</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>339</v>
+        <v>35</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="Q43" s="3" cm="1">
         <f t="array" ref="Q43">_xlfn.LET(
@@ -5639,80 +6454,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F43,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
+        <v>20282028</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R43)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R43)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R43)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V43" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R43)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="3"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R43)),"Pending","-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>297</v>
+        <v>27</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="F44" s="5">
-        <v>2027</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>342</v>
+        <v>2028</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>343</v>
+        <v>233</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K44" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>345</v>
+        <v>171</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>346</v>
+        <v>35</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="Q44" s="3" cm="1">
         <f t="array" ref="Q44">_xlfn.LET(
@@ -5720,80 +6535,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F44,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>47</v>
+        <v>20282028</v>
+      </c>
+      <c r="R44" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R44)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R44)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R44)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V44" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R44)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="3"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R44)),"Pending","-")</f>
+        <v>-</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>297</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F45" s="5">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>318</v>
+        <v>56</v>
       </c>
       <c r="K45" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>351</v>
+        <v>22</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="Q45" s="3" cm="1">
         <f t="array" ref="Q45">_xlfn.LET(
@@ -5801,80 +6616,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F45,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
+        <v>20282028</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R45)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T45" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R45)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U45" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R45)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V45" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R45)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R45)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>297</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>354</v>
+        <v>347</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>348</v>
       </c>
       <c r="F46" s="5">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>356</v>
+        <v>42</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>29</v>
+        <v>318</v>
       </c>
       <c r="K46" s="5">
-        <v>9</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>358</v>
+        <v>7</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>359</v>
+        <v>351</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>360</v>
+        <v>286</v>
       </c>
       <c r="Q46" s="3" cm="1">
         <f t="array" ref="Q46">_xlfn.LET(
@@ -5882,80 +6697,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F46,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
+        <v>20282028</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R46)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="T46" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R46)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="U46" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R46)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="V46" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R46)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R46)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="F47" s="20">
-        <v>2027</v>
+        <v>364</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2028</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K47" s="20">
-        <v>7</v>
-      </c>
-      <c r="L47" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="M47" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="N47" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="O47" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="P47" s="22" t="s">
-        <v>325</v>
+        <v>381</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K47" s="5">
+        <v>9</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="Q47" s="3" cm="1">
         <f t="array" ref="Q47">_xlfn.LET(
@@ -5963,80 +6778,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F47,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
-      </c>
-      <c r="R47" s="20" t="s">
-        <v>47</v>
+        <v>20282028</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R47)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T47" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R47)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U47" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R47)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V47" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R47)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R47)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>364</v>
+        <v>6</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>281</v>
+        <v>78</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2029</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K48" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>370</v>
+        <v>84</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>371</v>
+        <v>35</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>372</v>
+        <v>85</v>
       </c>
       <c r="Q48" s="3" cm="1">
         <f t="array" ref="Q48">_xlfn.LET(
@@ -6044,80 +6859,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F48,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272026</v>
+        <v>20292029</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S48" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R48)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T48" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R48)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R48)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V48" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R48)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W48" t="str">
-        <f t="shared" si="3"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R48)),"Pending","-")</f>
+        <v>-</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>364</v>
+        <v>11</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>281</v>
+        <v>121</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="37">
+        <v>2029</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>375</v>
+        <v>123</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>376</v>
+        <v>124</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="K49" s="5">
         <v>8</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>377</v>
+        <v>125</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>378</v>
+        <v>126</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>371</v>
+        <v>35</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>376</v>
+        <v>127</v>
       </c>
       <c r="Q49" s="3" cm="1">
         <f t="array" ref="Q49">_xlfn.LET(
@@ -6125,80 +6940,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F49,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272026</v>
+        <v>20292029</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="S49" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R49)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="T49" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R49)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="U49" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R49)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="V49" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R49)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="W49" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R49)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>364</v>
+        <v>16</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="F50" s="5">
-        <v>2027</v>
+        <v>158</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="37">
+        <v>2029</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>381</v>
+        <v>160</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>318</v>
+        <v>31</v>
       </c>
       <c r="K50" s="5">
         <v>9</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>382</v>
+        <v>162</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>383</v>
+        <v>103</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>384</v>
+        <v>163</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="Q50" s="3" cm="1">
         <f t="array" ref="Q50">_xlfn.LET(
@@ -6206,80 +7021,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F50,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
+        <v>20292029</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R50)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="T50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R50)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="U50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R50)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="V50" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R50)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
       <c r="W50" t="str">
-        <f t="shared" si="3"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R50)),"Pending","-")</f>
+        <v>-</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>386</v>
+        <v>23</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="F51" s="5">
-        <v>2026</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K51" s="5">
-        <v>7</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>395</v>
+        <v>203</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="30">
+        <v>2029</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="31">
+        <v>8</v>
+      </c>
+      <c r="L51" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="M51" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="N51" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="O51" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="P51" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="Q51" s="3" cm="1">
         <f t="array" ref="Q51">_xlfn.LET(
@@ -6287,80 +7102,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F51,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
+        <v>20292029</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R51)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R51)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R51)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="V51" t="str">
-        <f t="shared" si="4"/>
-        <v>Pending</v>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R51)),"Pending","-")</f>
+        <v>-</v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R51)),"Pending","-")</f>
+        <v>Pending</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F52" s="5">
-        <v>2027</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K52" s="5">
+        <v>28</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="37">
+        <v>2029</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="19">
         <v>8</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="N52" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>403</v>
+      <c r="L52" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O52" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="P52" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="Q52" s="3" cm="1">
         <f t="array" ref="Q52">_xlfn.LET(
@@ -6368,80 +7183,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F52,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>47</v>
+        <v>20292029</v>
+      </c>
+      <c r="R52" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R52)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R52)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R52)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R52)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R52)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="F53" s="25">
-        <v>2026</v>
+        <v>43</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="F53" s="37">
+        <v>2029</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K53" s="25">
-        <v>9</v>
-      </c>
-      <c r="L53" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="M53" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="N53" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="O53" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="P53" s="25" t="s">
-        <v>412</v>
+        <v>334</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="24">
+        <v>8</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="N53" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="O53" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="P53" s="24" t="s">
+        <v>335</v>
       </c>
       <c r="Q53" s="3" cm="1">
         <f t="array" ref="Q53">_xlfn.LET(
@@ -6449,80 +7264,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F53,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R53" s="30" t="s">
-        <v>47</v>
+        <v>20292029</v>
+      </c>
+      <c r="R53" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R53)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R53)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R53)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V53" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R53)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W53" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R53)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="87" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="F54" s="25">
-        <v>2027</v>
+        <v>46</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="F54" s="37">
+        <v>2029</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K54" s="25">
-        <v>7</v>
-      </c>
-      <c r="L54" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="M54" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="N54" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="O54" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="P54" s="28" t="s">
-        <v>421</v>
+        <v>355</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" s="24">
+        <v>9</v>
+      </c>
+      <c r="L54" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="M54" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="N54" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="O54" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="P54" s="24" t="s">
+        <v>360</v>
       </c>
       <c r="Q54" s="3" cm="1">
         <f t="array" ref="Q54">_xlfn.LET(
@@ -6530,80 +7345,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F54,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
-      </c>
-      <c r="R54" s="30" t="s">
-        <v>35</v>
+        <v>20292029</v>
+      </c>
+      <c r="R54" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R54)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R54)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R54)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="V54" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R54)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R54)),"Pending","-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="D55" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="F55" s="25">
-        <v>2027</v>
+      <c r="D55" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F55" s="44">
+        <v>2029</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="K55" s="25">
-        <v>8</v>
-      </c>
-      <c r="L55" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="M55" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="J55" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N55" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="O55" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="P55" s="25" t="s">
-        <v>425</v>
+      <c r="K55" s="24">
+        <v>9</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="N55" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="O55" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="P55" s="24" t="s">
+        <v>412</v>
       </c>
       <c r="Q55" s="3" cm="1">
         <f t="array" ref="Q55">_xlfn.LET(
@@ -6611,80 +7426,80 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F55,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20272027</v>
-      </c>
-      <c r="R55" s="30" t="s">
-        <v>47</v>
+        <v>20292029</v>
+      </c>
+      <c r="R55" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R55)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R55)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R55)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="V55" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R55)),"Pending","-")</f>
         <v>-</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R55)),"Pending","-")</f>
         <v>Pending</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="87" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C56" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="F56" s="26">
-        <v>2026</v>
+      <c r="C56" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="F56" s="43">
+        <v>2029</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I56" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="J56" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="K56" s="26">
-        <v>8</v>
-      </c>
-      <c r="L56" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="M56" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="N56" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="O56" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P56" s="24" t="s">
-        <v>434</v>
+        <v>415</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="25">
+        <v>7</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="M56" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="O56" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="P56" s="46" t="s">
+        <v>421</v>
       </c>
       <c r="Q56" s="3" cm="1">
         <f t="array" ref="Q56">_xlfn.LET(
@@ -6692,29 +7507,29 @@
     _xlpm.endYear, IFERROR(VALUE(MID(F56,6,4)), _xlpm.startYear),
     _xlpm.endYear*10000 + _xlpm.startYear
 )</f>
-        <v>20262026</v>
-      </c>
-      <c r="R56" s="31" t="s">
-        <v>35</v>
+        <v>20292029</v>
+      </c>
+      <c r="R56" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R56)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R56)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R56)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="V56" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISNUMBER(SEARCH("Independent",$R56)),"Pending","-")</f>
         <v>Pending</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISNUMBER(SEARCH("Collaboration",$R56)),"Pending","-")</f>
         <v>-</v>
       </c>
     </row>
@@ -6764,9 +7579,10 @@
       <c r="Q71" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B71" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="J1:K71" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X56">
-    <sortCondition ref="A2:A56"/>
+    <sortCondition ref="F2:F56"/>
+    <sortCondition ref="B2:B56"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D57:D1048576 D1:D52">
@@ -6790,15 +7606,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E849D4C79B424E4A931D0973CC8FF7A5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5376d577ce70c4e2488a8c30613b595c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="97b66f12-2b99-4af9-8dd0-4615ba9e34cf" xmlns:ns3="682daa6a-fc4e-47a4-bc9a-068fc2d76523" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7fa45745f42974ae0b96ee293ceb4ed" ns2:_="" ns3:_="">
     <xsd:import namespace="97b66f12-2b99-4af9-8dd0-4615ba9e34cf"/>
@@ -7003,6 +7810,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{448A8C9C-3A2C-4999-B9F6-17042F0B179B}">
   <ds:schemaRefs>
@@ -7015,14 +7831,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFE4A72-27E5-4496-848E-BC6B5EFC5633}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455B7A34-2EA9-4C1D-A0AB-D965C4504FA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7039,4 +7847,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFE4A72-27E5-4496-848E-BC6B5EFC5633}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>